--- a/biology/Médecine/Alban_Thorer/Alban_Thorer.xlsx
+++ b/biology/Médecine/Alban_Thorer/Alban_Thorer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alban Thorer (en latin : Albanus Torinus) est un médecin, philologue et pédagogue suisse de la Renaissance, né en 1489 à Winterthour, mort le 23 février  1550 à Bâle.
 Signalé comme étudiant à Bâle en 1516, bachelier en 1520, maître ès arts en 1522, il enseigna le latin et la rhétorique à partir de 1524. En 1527, il suivit les leçons de Paracelse, devenu médecin municipal de Bâle. En 1529, il se détermina pour la Réforme protestante. Il se rendit à Montpellier où il acquit le grade de docteur en médecine (et où il fut condisciple de Nostradamus). À Maguelone, en compagnie de Guillaume Pellicier, il découvrit un manuscrit très abîmé du De re coquinaria d'Apicius. De retour à Bâle peu après, il fut un temps directeur de l'école attenante à l'église protestante Saint-Pierre, puis reprit son enseignement de latin à l'université. En 1533, il se rendit à Wurtzbourg, espérant se faire embaucher comme médecin de cour par le prince-évêque Conrad de Thungen, mais cet espoir fut déçu. En 1535, il fut médecin du margrave Ernest de Bade-Durlach, mais dès 1536, il regagna Bâle à la demande du conseil municipal et y devint professeur de médecine. En 1542/43, il fut recteur de l'université de Bâle ; c'est pendant cette période qu'André Vésale vint à Bâle pour confier son De humani corporis fabrica à l'imprimeur Jean Oporin, et Thorer traduisit cet ouvrage en allemand. En 1545, sans avoir obtenu d'autorisation, il se rendit en consultation auprès de Christophe de Wurtemberg à Montbéliard, et le conseil municipal de Bâle le raya de la liste des professeurs de l'université. À son retour, toutes ses démarches pour être réintégré restèrent vaines. Il mourut d'une longue et douloureuse maladie.
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Notices d'autorité : VIAF ISNI BnF (données) IdRef LCCN GND Italie Espagne Belgique Pays-Bas Pologne Israël NUKAT Suède Vatican Norvège Tchéquie Portugal WorldCat 
 Abrégé de la Grammaire grecque de Manuel Chrysoloras, Bâle, 1528.
